--- a/Task #1/table templates/Count iterations.xlsx
+++ b/Task #1/table templates/Count iterations.xlsx
@@ -47,8 +47,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -443,11 +446,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="70722304"/>
-        <c:axId val="70723840"/>
+        <c:axId val="180910720"/>
+        <c:axId val="180916608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70722304"/>
+        <c:axId val="180910720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -457,7 +460,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70723840"/>
+        <c:crossAx val="180916608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -466,7 +469,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70723840"/>
+        <c:axId val="180916608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -477,7 +480,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70722304"/>
+        <c:crossAx val="180910720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -835,7 +838,11 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
